--- a/data/trans_camb/P1801-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Clase-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,58; 54,67</t>
+          <t>44,44; 54,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,52</t>
+          <t>49,42; 58,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,17; 63,18</t>
+          <t>52,27; 63,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,56; 65,52</t>
+          <t>57,84; 65,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,61; 56,84</t>
+          <t>49,57; 56,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,33; 60,57</t>
+          <t>54,2; 60,3</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,38; 55,07</t>
+          <t>44,53; 54,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,58; 62,16</t>
+          <t>52,49; 61,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,36; 62,84</t>
+          <t>52,75; 63,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,03; 61,02</t>
+          <t>52,16; 60,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,07; 57,69</t>
+          <t>50,1; 57,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,59; 60,12</t>
+          <t>53,43; 60,09</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,61; 57,7</t>
+          <t>49,0; 57,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,99; 88,46</t>
+          <t>51,66; 89,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,98; 71,2</t>
+          <t>55,83; 71,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,22; 63,49</t>
+          <t>50,71; 63,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,74; 59,59</t>
+          <t>51,62; 59,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,44; 86,9</t>
+          <t>53,04; 84,97</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,93; 50,89</t>
+          <t>44,99; 50,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,78; 53,59</t>
+          <t>46,6; 53,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,03</t>
+          <t>51,07; 57,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,3; 82,22</t>
+          <t>57,47; 82,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,38; 53,14</t>
+          <t>48,52; 52,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,77; 71,8</t>
+          <t>53,02; 71,13</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>41,52; 49,33</t>
+          <t>40,75; 49,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>42,68; 52,62</t>
+          <t>42,43; 52,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>51,57; 58,91</t>
+          <t>51,69; 59,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,57; 58,51</t>
+          <t>37,39; 58,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>48,14; 53,48</t>
+          <t>48,02; 53,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,34; 54,3</t>
+          <t>39,46; 54,37</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18,97; 28,71</t>
+          <t>19,18; 29,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,0; 30,91</t>
+          <t>14,5; 32,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>55,88; 61,69</t>
+          <t>55,47; 61,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,79; 51,72</t>
+          <t>45,06; 51,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>48,76; 54,23</t>
+          <t>48,58; 54,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>38,27; 45,21</t>
+          <t>38,3; 45,3</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>44,9; 48,3</t>
+          <t>44,83; 48,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>48,82; 64,09</t>
+          <t>48,93; 64,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>55,48; 58,82</t>
+          <t>55,67; 58,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>53,43; 66,79</t>
+          <t>53,53; 64,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>50,71; 53,13</t>
+          <t>50,7; 53,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>52,01; 61,56</t>
+          <t>52,09; 60,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1801-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
